--- a/ComEnY2-T2/CPE3243/work/4.1/Book1.xlsx
+++ b/ComEnY2-T2/CPE3243/work/4.1/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Computer-Engineer-RAM\ComEnY2-T2\CPE3243 วิศวกรรมซอฟแวร์\work\4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B3B1825-48B4-44C1-9CD4-BA2CD033839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFB8DB8-81C6-45BE-9F7D-7D9461C54433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF974434-4195-48BD-B274-45A9C55BF906}"/>
   </bookViews>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B83C0C-8923-4900-8E20-D04B7789F2BF}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,21 +633,25 @@
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
       <c r="C2" s="11">
         <v>3</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11">
+        <v>4</v>
+      </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11">
         <v>6</v>
       </c>
       <c r="H2" s="11">
         <f>(B2*C2)+(D2*E2)+(F2*G2)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -668,7 +672,9 @@
       <c r="C4" s="11">
         <v>4</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
       <c r="E4" s="11">
         <v>5</v>
       </c>
@@ -678,7 +684,7 @@
       </c>
       <c r="H4" s="11">
         <f t="shared" ref="H4" si="0">(B4*C4)+(D4*E4)+(F4*G4)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -730,7 +736,9 @@
       <c r="C8" s="11">
         <v>7</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
       <c r="E8" s="11">
         <v>10</v>
       </c>
@@ -740,7 +748,7 @@
       </c>
       <c r="H8" s="11">
         <f t="shared" ref="H8" si="2">(B8*C8)+(D8*E8)+(F8*G8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -761,7 +769,9 @@
       <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
       <c r="E10" s="11">
         <v>7</v>
       </c>
@@ -796,7 +806,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="4">
         <f>SUM(H2:H11)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
